--- a/biology/Médecine/Arhinie/Arhinie.xlsx
+++ b/biology/Médecine/Arhinie/Arhinie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arhinie (également appelé agénésie du nez ou agénésie nasale) est l'absence congénitale partielle ou totale du nez à la naissance.  Il s'agit d'une malformation extrêmement rare, avec peu de cas signalés dans l'histoire de la médecine moderne[1]. Elle est généralement liée à des anomalies craniofaciales[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arhinie (également appelé agénésie du nez ou agénésie nasale) est l'absence congénitale partielle ou totale du nez à la naissance.  Il s'agit d'une malformation extrêmement rare, avec peu de cas signalés dans l'histoire de la médecine moderne. Elle est généralement liée à des anomalies craniofaciales.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La cause de l'arhinie n'est pas connue[1],[3]. L'étude d'Akkuzu révèle que tous les cas présentent un diagnostic prénatal normal[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cause de l'arhinie n'est pas connue,. L'étude d'Akkuzu révèle que tous les cas présentent un diagnostic prénatal normal.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le traitement vise à déterminer la nature des anomalies par diverses méthodes d'imagerie, comprenant l'IRM et la tomodensitométrie, et une correction chirurgicale dans la mesure du possible[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le traitement vise à déterminer la nature des anomalies par diverses méthodes d'imagerie, comprenant l'IRM et la tomodensitométrie, et une correction chirurgicale dans la mesure du possible.
 </t>
         </is>
       </c>
